--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821384.025312912</v>
+        <v>850872.3263275627</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>236428.331398364</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9662474.503279347</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8935643.683630291</v>
+        <v>8648257.187411843</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.4268167426368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>350.3619211470038</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>155.593506046258</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>62.33263748886744</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.39108932486054</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>62.56386682245608</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496966</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>333.2367327452156</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>84.4526210585756</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1388,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>229.6565184409988</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>159.5623709710786</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.9223155524618</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1785,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>116.3856072204743</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>241.4923106593523</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>57.68157701938526</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>110.9272034736102</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>168.2959226233835</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>302.0859656363398</v>
+        <v>26.94389492651113</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.31590541686252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>43.34833826371133</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>43.87500053459878</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2731,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>235.1409180575058</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>261.7536979562369</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>68.79719455169459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>245.9555222332798</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>87.81575107239195</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>57.44899573820114</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>56.8819698781575</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.34508049624289</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>25.85036383430294</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.18226380646121</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>83.58354151325305</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>89.25906081820717</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>342.196593030168</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>58.49852621786729</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3870,7 +3872,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>58.4826936186418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>279.9387901805692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>128.7835007017901</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>565.6746564320252</v>
+        <v>338.843359929514</v>
       </c>
       <c r="C2" t="n">
-        <v>565.6746564320252</v>
+        <v>338.843359929514</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>338.843359929514</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.89738649279127</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.89738649279127</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>617.7893333662367</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>617.7893333662367</v>
       </c>
       <c r="X2" t="n">
-        <v>955.813988407837</v>
+        <v>617.7893333662367</v>
       </c>
       <c r="Y2" t="n">
-        <v>565.6746564320252</v>
+        <v>338.843359929514</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598707</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>947.4608971869391</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>719.2422848210867</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>484.090176589344</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>348.020265289186</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064347</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406187</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4606,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224644</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240415</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>348.020265289186</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4732,43 +4734,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822953</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757906</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4926,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240414</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261311</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>348.020265289186</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548716</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5124,10 +5126,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5142,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5203,34 +5205,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V13" t="n">
         <v>53.94298182036445</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1268.68094731003</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.68094731003</v>
+        <v>1000.453914126406</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1000.453914126406</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>1000.453914126406</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>589.4680093367981</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>171.504201234985</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>171.504201234985</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278602</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>2045.420119349963</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1655.280787374151</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5637,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="F19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="G19" t="n">
-        <v>99.59950625323012</v>
+        <v>269.9555735993346</v>
       </c>
       <c r="H19" t="n">
-        <v>99.59950625323012</v>
+        <v>112.2072010318647</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>616.0813039300605</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.1194880117303</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>962.1194880117303</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>962.1194880117303</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>962.1194880117303</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>551.1335832221228</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1738.858660051664</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y20" t="n">
-        <v>1348.719328075852</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083245</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2001.758776122686</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>2001.758776122686</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D23" t="n">
-        <v>1643.493077515935</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E23" t="n">
-        <v>1257.704824917691</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -5993,7 +5995,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.358616186807</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.358616186807</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y23" t="n">
-        <v>2388.358616186807</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>520.9088977430002</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C25" t="n">
-        <v>351.9727148150933</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
         <v>53.94298182036446</v>
@@ -6151,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y25" t="n">
-        <v>702.55736257324</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1150.38930518072</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.38930518072</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739693</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2653.362890751847</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2653.362890751847</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2653.362890751847</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2653.362890751847</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2653.362890751847</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>2300.594235481733</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.128477220653</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y26" t="n">
-        <v>1536.989145244841</v>
+        <v>1320.425425970681</v>
       </c>
     </row>
     <row r="27">
@@ -6285,19 +6287,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6327,7 +6329,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6415,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>490.6129053604687</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9284171545819</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1125.191652989356</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C29" t="n">
-        <v>1125.191652989356</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D29" t="n">
-        <v>766.9259543826058</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2572.628285839933</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2241.565398496362</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>1888.796743226248</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X29" t="n">
-        <v>1515.330984965168</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y29" t="n">
-        <v>1125.191652989356</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6652,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>479.6890627586768</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>479.6890627586768</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1666.64813361638</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C32" t="n">
-        <v>1297.685616675969</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D32" t="n">
-        <v>939.4199180692183</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>553.631665470974</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>142.6457606813664</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2584.09111292427</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.387305656314</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X32" t="n">
-        <v>2443.387305656314</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y32" t="n">
-        <v>2053.247973680502</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2305.297090124192</v>
+        <v>2080.419623862615</v>
       </c>
       <c r="C34" t="n">
-        <v>2305.297090124192</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2305.297090124192</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2305.297090124192</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2305.297090124192</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>2305.297090124192</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6877,31 +6879,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2305.297090124192</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T34" t="n">
-        <v>2305.297090124192</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U34" t="n">
-        <v>2305.297090124192</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V34" t="n">
-        <v>2305.297090124192</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W34" t="n">
-        <v>2305.297090124192</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X34" t="n">
-        <v>2305.297090124192</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y34" t="n">
-        <v>2305.297090124192</v>
+        <v>2262.068088692855</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978289</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.447402037877</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D35" t="n">
-        <v>1193.181703431127</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E35" t="n">
-        <v>807.3934508328825</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F35" t="n">
-        <v>396.407546043275</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6938,22 +6940,22 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
@@ -6971,16 +6973,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2671.037612397714</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2318.2689571276</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>1944.80319886652</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.009759042411</v>
+        <v>1554.663866890708</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.59950625323012</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C37" t="n">
-        <v>99.59950625323012</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D37" t="n">
-        <v>99.59950625323012</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E37" t="n">
-        <v>99.59950625323012</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F37" t="n">
-        <v>99.59950625323012</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G37" t="n">
-        <v>99.59950625323012</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H37" t="n">
-        <v>99.59950625323012</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>643.7011644960776</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>389.0166762901907</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>99.59950625323012</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>99.59950625323012</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.59950625323012</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1584.314837422907</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1215.352320482495</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>857.0866218757444</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>144.103649313503</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7175,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1970.914677487028</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1167.455337753612</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C41" t="n">
-        <v>798.4928208132003</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D41" t="n">
-        <v>440.2271222064498</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="E41" t="n">
-        <v>440.2271222064498</v>
+        <v>399.5961060932614</v>
       </c>
       <c r="F41" t="n">
-        <v>440.2271222064498</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>440.2271222064498</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>113.0324022424526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1540.921096014692</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X41" t="n">
-        <v>1167.455337753612</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.455337753612</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="42">
@@ -7488,34 +7490,34 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
         <v>2289.884200196743</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7591,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>520.9088977430002</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>520.9088977430002</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1637.643464250441</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,7 +7648,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.382636290375</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.243304314563</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7746,7 +7748,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
@@ -7834,7 +7836,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
         <v>598.0446400632119</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719076</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>136.5441990361994</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142007</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>377.7351317846827</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>19.36917953146525</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.26759492591381</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22689,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22714,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>83.0884105340638</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>225.0322601049386</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.34275233862</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>53.30008710312342</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>82.85718120047517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>48.69363732704619</v>
+        <v>260.8147443664145</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,13 +23187,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85718120047531</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>21.56764906729052</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>164.3604017932786</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>7.301851955827487</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>35.54570902438694</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,16 +23788,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>128.2387900191167</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>77.284044772953</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>101.2183354764087</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4882473974115</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,16 +24025,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,7 +24183,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>85.19271039829701</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>104.7900801053716</v>
+        <v>379.9321508152003</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,19 +24262,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.8347852886632</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.2687479352323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.13006431110039</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>342.3629381214548</v>
       </c>
     </row>
     <row r="27">
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24655,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>51.14095618447195</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>120.9801437072437</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>182.4269729565947</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>40.32635200869791</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>325.968418948403</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>158.9993246194566</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.3648512204703</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,13 +25092,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>56.82580834555226</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25211,13 +25213,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>301.901894635832</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>75.23878421647004</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6983327287247</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25406,10 +25408,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>62.67225542665408</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>64.67945271154343</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>93.43279002699396</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,22 +25833,22 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>153.6628453313771</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772770.7936813893</v>
+        <v>485384.2974629398</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="H2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="J2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
@@ -26353,7 +26355,7 @@
         <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35944.74664026682</v>
+        <v>33777.16046143054</v>
       </c>
       <c r="C4" t="n">
         <v>35944.74664026682</v>
@@ -26448,10 +26450,10 @@
         <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
         <v>35944.74664026682</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26482,10 +26484,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434076.7244032513</v>
+        <v>-42929.13997465522</v>
       </c>
       <c r="C6" t="n">
-        <v>155891.1548112935</v>
+        <v>-284816.9287034522</v>
       </c>
       <c r="D6" t="n">
         <v>155891.1548112934</v>
       </c>
       <c r="E6" t="n">
-        <v>189518.7548112934</v>
+        <v>189518.7548112936</v>
       </c>
       <c r="F6" t="n">
-        <v>189518.7548112934</v>
+        <v>189518.7548112935</v>
       </c>
       <c r="G6" t="n">
         <v>189518.7548112935</v>
       </c>
       <c r="H6" t="n">
+        <v>189518.7548112933</v>
+      </c>
+      <c r="I6" t="n">
         <v>189518.7548112934</v>
       </c>
-      <c r="I6" t="n">
-        <v>189518.7548112936</v>
-      </c>
       <c r="J6" t="n">
-        <v>13095.53561870032</v>
+        <v>117264.0599401544</v>
       </c>
       <c r="K6" t="n">
-        <v>189518.7548112935</v>
+        <v>87052.63761554677</v>
       </c>
       <c r="L6" t="n">
         <v>189518.7548112934</v>
@@ -26561,7 +26563,7 @@
         <v>189518.7548112935</v>
       </c>
       <c r="P6" t="n">
-        <v>189518.7548112933</v>
+        <v>189518.7548112934</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26765,10 +26767,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26814,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,22 +33593,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>16.95427887837174</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047519</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35492,19 +35494,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36452,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36686,7 +36688,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
